--- a/Location Details/Massachusetts Ave, Indianapolis, IN 46204_conference.xlsx
+++ b/Location Details/Massachusetts Ave, Indianapolis, IN 46204_conference.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
         <v>4.6</v>
       </c>
       <c r="E10" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -844,19 +844,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>INDIANA HOSA</t>
+          <t>Indiana Catholic Conference</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -865,19 +865,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Indiana Catholic Conference</t>
+          <t>Indiana Convention Center</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>528</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -886,19 +886,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Indiana Convention Center</t>
+          <t>Indiana Government Center Conference Rooms A and B</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -907,19 +907,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Indiana Government Center Conference Rooms A and B</t>
+          <t>Indiana United Methodist Conference</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -928,19 +928,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Indiana United Methodist Conference</t>
+          <t>Indiana Water Environment Association</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -949,19 +949,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Indiana Water Environment Association</t>
+          <t>Indiana Wesleyan University - Greenwood Education and Conference Center</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -970,19 +970,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Indiana Wesleyan University - Greenwood Education and Conference Center</t>
+          <t>Indiana Wesleyan University - Indianapolis North Education and Conference Center</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -991,19 +991,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Indiana Wesleyan University - Indianapolis North Education and Conference Center</t>
+          <t>Indiana Wesleyan University - Indianapolis West Education and Conference Center</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1012,19 +1012,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Indiana Wesleyan University - Indianapolis West Education and Conference Center</t>
+          <t>Indiana-Kentucky Conference</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1033,19 +1033,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Indiana-Kentucky Conference</t>
+          <t>Indianapolis EMS Conference Center</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>4.1</v>
       </c>
       <c r="E47" t="n">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="48">
@@ -1444,7 +1444,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
